--- a/Football.xlsx
+++ b/Football.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="gdFIP" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="predict" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,7 +389,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>HR9</t>
+          <t>goals</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -399,17 +399,17 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>K9</t>
+          <t>pulls</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BB9</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ERA</t>
+          <t>truth</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -419,7 +419,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>gdFIP</t>
+          <t>predict</t>
         </is>
       </c>
     </row>
@@ -444,101 +444,25 @@
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J2" t="n">
         <v>3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.33</v>
       </c>
       <c r="K2" t="n">
         <v>0.83</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5601422873923629</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>urugvai</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1a</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H3" t="n">
-        <v>17</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.860683183866692</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>sudavskaia_aravia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2а</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1.098092074859079</v>
+        <v>15.15994558775311</v>
       </c>
     </row>
   </sheetData>
